--- a/01_Testes_Manuais/Projeto_Udemy/2_Casos_de_Teste_Udemy_v1.0.xlsx
+++ b/01_Testes_Manuais/Projeto_Udemy/2_Casos_de_Teste_Udemy_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pamella Moraes\Documents\QA\001. ESTUDOS ANALISTA DE TESTE QA JR\001.Exercicios\001_Udemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pamella Moraes\Documents\Projetos Git\QA-Projects\01_Testes_Manuais\Projeto_Udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5850C661-B8B4-49AC-A7B3-1199DFEFDB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F4C13-C8B3-4620-8013-00515ABC6F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="154">
   <si>
     <t>DASHBOARD - QA UDEMY PROJECT</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>High (Alta)</t>
   </si>
   <si>
     <t>16.7%</t>
@@ -670,12 +667,18 @@
 • Todos os bugs foram documentados com evidências (vídeos e prints) e passos detalhados para reprodução
 • Testes realizados em ambiente  Google Chrome 143.0.7499.170 (64 bits)/Windows 11 Pro, em modo anônimo para garantir reprodutibilidade</t>
   </si>
+  <si>
+    <t>High (alto)</t>
+  </si>
+  <si>
+    <t>Highest(Crítico)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +739,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -850,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -902,22 +910,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -928,6 +937,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1232,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,146 +1256,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="28" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="26">
         <v>12</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19">
+      <c r="B12" s="23"/>
+      <c r="C12" s="30">
         <v>6</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="26">
+      <c r="F12" s="23"/>
+      <c r="G12" s="27">
         <v>6</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="24" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1407,160 +1419,171 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="F18" s="9">
         <v>4</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="11">
-        <v>2</v>
-      </c>
-      <c r="C19" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="F19" s="9">
         <v>5</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="B20" s="11">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" s="13">
-        <v>2</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="F20" s="9">
         <v>2</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="13">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="E21" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="9">
         <v>1</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="24" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
+  <mergeCells count="19">
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A30:H30"/>
     <mergeCell ref="C12:D13"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A25:H25"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A24:H28"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="B6:D6"/>
@@ -1569,11 +1592,13 @@
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A22:H22"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1582,7 +1607,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1599,10 +1624,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -1611,452 +1636,453 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="153" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="153" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="I3" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="F5" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="H5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="229.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="204" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="191.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="E11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="H11" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="I12" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="J12" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>129</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K13" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="2">
+    <filterColumn colId="3">
       <filters>
-        <filter val="FALHOU"/>
+        <filter val="High"/>
+        <filter val="Medium"/>
       </filters>
     </filterColumn>
   </autoFilter>
